--- a/data/db_source/doc_dataset.xlsx
+++ b/data/db_source/doc_dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannuaire/datannuaire_dev/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFB202F-C509-024F-BFAC-132D5E1297FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3E1E8E-5B09-A54B-9B17-84C07995B7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,13 +28,13 @@
     <t>pdf_wiki</t>
   </si>
   <si>
-    <t>dataset_3</t>
-  </si>
-  <si>
     <t>doc_id</t>
   </si>
   <si>
     <t>pdf_online</t>
+  </si>
+  <si>
+    <t>dep_sante</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -401,7 +401,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -412,15 +412,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
